--- a/data/categories_546914209.xlsx
+++ b/data/categories_546914209.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,21 +451,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Зарплата</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
           <t>Подарки</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23ппп</t>
         </is>
       </c>
     </row>
@@ -480,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,13 +491,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Продукты</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
           <t>Транспорт</t>
         </is>
       </c>

--- a/data/categories_546914209.xlsx
+++ b/data/categories_546914209.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,13 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Подарки</t>
         </is>
@@ -466,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +498,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Транспорт</t>
         </is>
       </c>
